--- a/biology/Botanique/Asclepias_tuberosa/Asclepias_tuberosa.xlsx
+++ b/biology/Botanique/Asclepias_tuberosa/Asclepias_tuberosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asclepias tuberosa
-Asclepias tuberosa, communément appelée Asclépiade tubéreuse[1], est une espèce végétale de la famille des Apocynaceae. 
+Asclepias tuberosa, communément appelée Asclépiade tubéreuse, est une espèce végétale de la famille des Apocynaceae. 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace atteignant 0,3 à 1 mètre de hauteur, avec des fleurs orange ou jaunes groupées du début de l'été au début de l'automne. Les feuilles sont disposées en spirale, lancéolées, de 5 à 12 cm de long et de 2 à 3 cm de large.
 Certaines plantes sauvages ont des fleurs orange très rougeâtres. Il n'est pas certain que cela soit dû à la teneur en minéraux du sol, à la différenciation génétique des écotypes ou aux deux. Un cultivar, 'Hello Yellow', a généralement plus de fleurs jaunâtres que les exemples ordinaires de cette plante.
@@ -544,9 +558,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est utilisée comme plante ornementale. Adam Maurizio signale ses pousses comme alimentaires[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est utilisée comme plante ornementale. Adam Maurizio signale ses pousses comme alimentaires. 
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante préfère les sols secs, sablonneux ou graveleux, mais a également été signalée sur les bords des cours d'eau. Il nécessite le plein soleil.
 </t>
@@ -606,9 +624,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (5 févr. 2012)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (5 févr. 2012) :
 sous-espèce Asclepias tuberosa subsp. interior
 sous-espèce Asclepias tuberosa subsp. rolfsii</t>
         </is>
